--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.3472668508848251</v>
+        <v>0.4455971197233026</v>
       </c>
       <c r="D2">
-        <v>0.7284343751258415</v>
+        <v>0.6602424197275307</v>
       </c>
       <c r="E2">
         <v>0.903857124199267</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.3584908324346502</v>
+        <v>0.3606132201812469</v>
       </c>
       <c r="D3">
-        <v>0.7200210957092308</v>
+        <v>0.7218280105390669</v>
       </c>
       <c r="E3">
         <v>0.903857124199267</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.546119318302277</v>
+        <v>1.31561766665408</v>
       </c>
       <c r="D4">
-        <v>0.1222642068328235</v>
+        <v>0.201848726231606</v>
       </c>
       <c r="E4">
         <v>0.903857124199267</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.2715198718402815</v>
+        <v>0.2805198501366006</v>
       </c>
       <c r="D5">
-        <v>0.7860245975792375</v>
+        <v>0.7816997324742947</v>
       </c>
       <c r="E5">
         <v>0.903857124199267</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.03102291278791437</v>
+        <v>0.02881861154526595</v>
       </c>
       <c r="D6">
-        <v>0.9752549538321544</v>
+        <v>0.9772690910377133</v>
       </c>
       <c r="E6">
         <v>0.8882135956653617</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.19055103168357</v>
+        <v>1.156799736153584</v>
       </c>
       <c r="D7">
-        <v>0.2339981800695177</v>
+        <v>0.2597611767791046</v>
       </c>
       <c r="E7">
         <v>0.8882135956653617</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.01693023813772227</v>
+        <v>0.01738025307447338</v>
       </c>
       <c r="D8">
-        <v>0.9864942811862232</v>
+        <v>0.986289925016917</v>
       </c>
       <c r="E8">
         <v>0.8882135956653617</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.058039951123172</v>
+        <v>0.6837731997478845</v>
       </c>
       <c r="D9">
-        <v>0.2901894245608427</v>
+        <v>0.5012576399160147</v>
       </c>
       <c r="E9">
         <v>0.8867705266562046</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.01283888298534184</v>
+        <v>-0.01265155390170644</v>
       </c>
       <c r="D10">
-        <v>0.9897578602279307</v>
+        <v>0.9900198205515329</v>
       </c>
       <c r="E10">
         <v>0.8867705266562046</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.9092284528123945</v>
+        <v>-0.7406901920528188</v>
       </c>
       <c r="D11">
-        <v>0.3633600430704935</v>
+        <v>0.4667138577045544</v>
       </c>
       <c r="E11">
         <v>0.8324688506565709</v>
